--- a/Mifos Automation Excels/Client/2362-RBI-EPP-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DLR-EARLY-CASH-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/2362-RBI-EPP-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DLR-EARLY-CASH-Newcreateloan2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -227,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -252,10 +252,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -604,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,26 +639,26 @@
       <c r="A2" s="9">
         <v>10000</v>
       </c>
-      <c r="B2" s="12">
-        <v>833.33</v>
+      <c r="B2" s="7">
+        <v>842.65</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7">
         <v>0</v>
       </c>
       <c r="E2" s="10">
-        <v>9166.67</v>
+        <v>9157.35</v>
       </c>
       <c r="F2" s="10">
-        <v>1666.67</v>
+        <v>1666.66</v>
       </c>
       <c r="G2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>348</v>
-      </c>
-      <c r="B3" s="12">
+      <c r="A3" s="7">
+        <v>348.41</v>
+      </c>
+      <c r="B3" s="7">
         <v>7.67</v>
       </c>
       <c r="C3" s="7">
@@ -671,11 +667,11 @@
       <c r="D3" s="7">
         <v>0</v>
       </c>
-      <c r="E3" s="12">
-        <v>340.33</v>
-      </c>
-      <c r="F3" s="12">
-        <v>28.45</v>
+      <c r="E3" s="7">
+        <v>340.74</v>
+      </c>
+      <c r="F3" s="7">
+        <v>28.46</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -719,7 +715,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E7" s="14"/>
+      <c r="E7" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -728,10 +724,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,7 +750,7 @@
     <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -804,7 +800,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8">
@@ -812,7 +808,7 @@
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="13"/>
+      <c r="F2" s="7"/>
       <c r="G2" s="9">
         <v>5000</v>
       </c>
@@ -832,7 +828,7 @@
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -846,13 +842,13 @@
         <v>42019</v>
       </c>
       <c r="E3" s="11"/>
-      <c r="F3" s="13">
-        <v>833.33</v>
+      <c r="F3" s="7">
+        <v>842.65</v>
       </c>
       <c r="G3" s="10">
-        <v>4166.67</v>
-      </c>
-      <c r="H3" s="13">
+        <v>4157.3500000000004</v>
+      </c>
+      <c r="H3" s="7">
         <v>7.67</v>
       </c>
       <c r="I3" s="7">
@@ -861,11 +857,11 @@
       <c r="J3" s="7">
         <v>0</v>
       </c>
-      <c r="K3" s="12">
-        <v>841</v>
-      </c>
-      <c r="L3" s="12">
-        <v>841</v>
+      <c r="K3" s="7">
+        <v>850.32</v>
+      </c>
+      <c r="L3" s="7">
+        <v>850.32</v>
       </c>
       <c r="M3" s="7">
         <v>0</v>
@@ -879,9 +875,8 @@
       <c r="P3" s="7">
         <v>0</v>
       </c>
-      <c r="R3" s="13"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -893,13 +888,13 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="13">
+      <c r="F4" s="7">
         <v>833.33</v>
       </c>
       <c r="G4" s="10">
-        <v>3333.33</v>
-      </c>
-      <c r="H4" s="13">
+        <v>3324.02</v>
+      </c>
+      <c r="H4" s="7">
         <v>9.32</v>
       </c>
       <c r="I4" s="7">
@@ -908,7 +903,7 @@
       <c r="J4" s="7">
         <v>0</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="7">
         <v>842.65</v>
       </c>
       <c r="L4" s="7">
@@ -923,12 +918,11 @@
       <c r="O4" s="7">
         <v>0</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="7">
         <v>842.65</v>
       </c>
-      <c r="R4" s="13"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8">
@@ -936,11 +930,11 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="13"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="9">
         <v>5000</v>
       </c>
-      <c r="H5" s="13"/>
+      <c r="H5" s="7"/>
       <c r="I5" s="7">
         <v>0</v>
       </c>
@@ -954,10 +948,9 @@
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
-      <c r="P5" s="12"/>
-      <c r="R5" s="13"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -969,14 +962,14 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="13">
+      <c r="F6" s="7">
         <v>833.33</v>
       </c>
-      <c r="G6" s="13">
-        <v>7500</v>
-      </c>
-      <c r="H6" s="13">
-        <v>19.13</v>
+      <c r="G6" s="10">
+        <v>7490.69</v>
+      </c>
+      <c r="H6" s="7">
+        <v>19.14</v>
       </c>
       <c r="I6" s="7">
         <v>0</v>
@@ -984,8 +977,8 @@
       <c r="J6" s="7">
         <v>0</v>
       </c>
-      <c r="K6" s="12">
-        <v>852.46</v>
+      <c r="K6" s="7">
+        <v>852.47</v>
       </c>
       <c r="L6" s="7">
         <v>0</v>
@@ -999,12 +992,11 @@
       <c r="O6" s="7">
         <v>0</v>
       </c>
-      <c r="P6" s="12">
-        <v>852.46</v>
-      </c>
-      <c r="R6" s="13"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P6" s="7">
+        <v>852.47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -1016,14 +1008,14 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="13">
+      <c r="F7" s="7">
         <v>833.33</v>
       </c>
       <c r="G7" s="10">
-        <v>6666.67</v>
-      </c>
-      <c r="H7" s="13">
-        <v>62.21</v>
+        <v>6657.36</v>
+      </c>
+      <c r="H7" s="7">
+        <v>62.22</v>
       </c>
       <c r="I7" s="7">
         <v>0</v>
@@ -1031,7 +1023,7 @@
       <c r="J7" s="7">
         <v>0</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="7">
         <v>895.55</v>
       </c>
       <c r="L7" s="7">
@@ -1046,12 +1038,11 @@
       <c r="O7" s="7">
         <v>0</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="7">
         <v>895.55</v>
       </c>
-      <c r="R7" s="13"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -1063,14 +1054,14 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="13">
+      <c r="F8" s="7">
         <v>833.33</v>
       </c>
       <c r="G8" s="10">
-        <v>5833.33</v>
-      </c>
-      <c r="H8" s="13">
-        <v>54.71</v>
+        <v>5824.03</v>
+      </c>
+      <c r="H8" s="7">
+        <v>54.72</v>
       </c>
       <c r="I8" s="7">
         <v>0</v>
@@ -1078,8 +1069,8 @@
       <c r="J8" s="7">
         <v>0</v>
       </c>
-      <c r="K8" s="12">
-        <v>888.04</v>
+      <c r="K8" s="7">
+        <v>888.05</v>
       </c>
       <c r="L8" s="7">
         <v>0</v>
@@ -1093,12 +1084,11 @@
       <c r="O8" s="7">
         <v>0</v>
       </c>
-      <c r="P8" s="12">
-        <v>888.04</v>
-      </c>
-      <c r="R8" s="13"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P8" s="7">
+        <v>888.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -1110,14 +1100,14 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="13">
+      <c r="F9" s="7">
         <v>833.33</v>
       </c>
       <c r="G9" s="10">
-        <v>5000</v>
-      </c>
-      <c r="H9" s="13">
-        <v>49.49</v>
+        <v>4990.7</v>
+      </c>
+      <c r="H9" s="7">
+        <v>49.46</v>
       </c>
       <c r="I9" s="7">
         <v>0</v>
@@ -1125,8 +1115,8 @@
       <c r="J9" s="7">
         <v>0</v>
       </c>
-      <c r="K9" s="12">
-        <v>882.82</v>
+      <c r="K9" s="7">
+        <v>882.79</v>
       </c>
       <c r="L9" s="7">
         <v>0</v>
@@ -1140,12 +1130,11 @@
       <c r="O9" s="7">
         <v>0</v>
       </c>
-      <c r="P9" s="12">
-        <v>882.82</v>
-      </c>
-      <c r="R9" s="13"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P9" s="7">
+        <v>882.79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -1157,14 +1146,14 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="13">
+      <c r="F10" s="7">
         <v>833.33</v>
       </c>
       <c r="G10" s="10">
-        <v>4166.67</v>
-      </c>
-      <c r="H10" s="13">
-        <v>41.05</v>
+        <v>4157.37</v>
+      </c>
+      <c r="H10" s="7">
+        <v>41.02</v>
       </c>
       <c r="I10" s="7">
         <v>0</v>
@@ -1172,8 +1161,8 @@
       <c r="J10" s="7">
         <v>0</v>
       </c>
-      <c r="K10" s="12">
-        <v>874.39</v>
+      <c r="K10" s="7">
+        <v>874.35</v>
       </c>
       <c r="L10" s="7">
         <v>0</v>
@@ -1187,12 +1176,11 @@
       <c r="O10" s="7">
         <v>0</v>
       </c>
-      <c r="P10" s="12">
-        <v>874.39</v>
-      </c>
-      <c r="R10" s="13"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P10" s="7">
+        <v>874.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -1204,14 +1192,14 @@
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="13">
+      <c r="F11" s="7">
         <v>833.33</v>
       </c>
       <c r="G11" s="10">
-        <v>3333.33</v>
-      </c>
-      <c r="H11" s="13">
-        <v>35.33</v>
+        <v>3324.04</v>
+      </c>
+      <c r="H11" s="7">
+        <v>35.31</v>
       </c>
       <c r="I11" s="7">
         <v>0</v>
@@ -1219,8 +1207,8 @@
       <c r="J11" s="7">
         <v>0</v>
       </c>
-      <c r="K11" s="12">
-        <v>868.67</v>
+      <c r="K11" s="7">
+        <v>868.64</v>
       </c>
       <c r="L11" s="7">
         <v>0</v>
@@ -1234,12 +1222,11 @@
       <c r="O11" s="7">
         <v>0</v>
       </c>
-      <c r="P11" s="12">
-        <v>868.67</v>
-      </c>
-      <c r="R11" s="13"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P11" s="7">
+        <v>868.64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -1251,14 +1238,14 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="13">
+      <c r="F12" s="7">
         <v>833.33</v>
       </c>
       <c r="G12" s="10">
-        <v>2500</v>
-      </c>
-      <c r="H12" s="13">
-        <v>28.22</v>
+        <v>2490.71</v>
+      </c>
+      <c r="H12" s="7">
+        <v>28.23</v>
       </c>
       <c r="I12" s="7">
         <v>0</v>
@@ -1266,7 +1253,7 @@
       <c r="J12" s="7">
         <v>0</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="7">
         <v>861.56</v>
       </c>
       <c r="L12" s="7">
@@ -1281,12 +1268,11 @@
       <c r="O12" s="7">
         <v>0</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="7">
         <v>861.56</v>
       </c>
-      <c r="R12" s="13"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -1298,14 +1284,14 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="13">
+      <c r="F13" s="7">
         <v>833.33</v>
       </c>
       <c r="G13" s="10">
-        <v>1666.67</v>
-      </c>
-      <c r="H13" s="13">
-        <v>20.41</v>
+        <v>1657.38</v>
+      </c>
+      <c r="H13" s="7">
+        <v>20.47</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
@@ -1313,8 +1299,8 @@
       <c r="J13" s="7">
         <v>0</v>
       </c>
-      <c r="K13" s="12">
-        <v>853.74</v>
+      <c r="K13" s="7">
+        <v>853.8</v>
       </c>
       <c r="L13" s="7">
         <v>0</v>
@@ -1328,12 +1314,11 @@
       <c r="O13" s="7">
         <v>0</v>
       </c>
-      <c r="P13" s="12">
-        <v>853.74</v>
-      </c>
-      <c r="R13" s="13"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P13" s="7">
+        <v>853.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -1345,14 +1330,14 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="13">
+      <c r="F14" s="7">
         <v>833.33</v>
       </c>
-      <c r="G14" s="10">
-        <v>833.33</v>
-      </c>
-      <c r="H14" s="13">
-        <v>13.93</v>
+      <c r="G14" s="7">
+        <v>824.05</v>
+      </c>
+      <c r="H14" s="7">
+        <v>14.08</v>
       </c>
       <c r="I14" s="7">
         <v>0</v>
@@ -1360,8 +1345,8 @@
       <c r="J14" s="7">
         <v>0</v>
       </c>
-      <c r="K14" s="12">
-        <v>847.26</v>
+      <c r="K14" s="7">
+        <v>847.41</v>
       </c>
       <c r="L14" s="7">
         <v>0</v>
@@ -1375,12 +1360,11 @@
       <c r="O14" s="7">
         <v>0</v>
       </c>
-      <c r="P14" s="12">
-        <v>847.26</v>
-      </c>
-      <c r="R14" s="13"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P14" s="7">
+        <v>847.41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -1392,14 +1376,14 @@
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="13">
-        <v>833.33</v>
+      <c r="F15" s="7">
+        <v>824.05</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
       </c>
-      <c r="H15" s="13">
-        <v>6.53</v>
+      <c r="H15" s="7">
+        <v>6.77</v>
       </c>
       <c r="I15" s="7">
         <v>0</v>
@@ -1407,8 +1391,8 @@
       <c r="J15" s="7">
         <v>0</v>
       </c>
-      <c r="K15" s="12">
-        <v>839.86</v>
+      <c r="K15" s="7">
+        <v>830.82</v>
       </c>
       <c r="L15" s="7">
         <v>0</v>
@@ -1422,10 +1406,9 @@
       <c r="O15" s="7">
         <v>0</v>
       </c>
-      <c r="P15" s="12">
-        <v>839.86</v>
-      </c>
-      <c r="R15" s="13"/>
+      <c r="P15" s="7">
+        <v>830.82</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1435,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,7 +1473,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>27</v>
@@ -1516,15 +1499,15 @@
       <c r="I2" s="7">
         <v>0</v>
       </c>
-      <c r="J2" s="9">
-        <v>10000</v>
+      <c r="J2" s="10">
+        <v>9157.35</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>27</v>
@@ -1536,10 +1519,10 @@
         <v>33</v>
       </c>
       <c r="E3" s="7">
-        <v>851.25</v>
+        <v>850.32</v>
       </c>
       <c r="F3" s="7">
-        <v>833.33</v>
+        <v>842.65</v>
       </c>
       <c r="G3" s="7">
         <v>7.67</v>
@@ -1550,15 +1533,15 @@
       <c r="I3" s="7">
         <v>0</v>
       </c>
-      <c r="J3" s="7">
-        <v>0</v>
+      <c r="J3" s="10">
+        <v>4157.3500000000004</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>27</v>
@@ -1589,16 +1572,6 @@
       </c>
       <c r="K4"/>
       <c r="L4"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="13"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/2362-RBI-EPP-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DLR-EARLY-CASH-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/2362-RBI-EPP-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DLR-EARLY-CASH-Newcreateloan2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -124,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00000000000"/>
   </numFmts>
@@ -263,6 +268,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -310,7 +318,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,9 +351,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -378,6 +403,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -724,10 +766,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,12 +787,13 @@
     <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.140625" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -790,17 +833,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8">
@@ -827,8 +871,9 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -866,17 +911,18 @@
       <c r="M3" s="7">
         <v>0</v>
       </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
+      <c r="N3" s="7"/>
       <c r="O3" s="7">
         <v>0</v>
       </c>
       <c r="P3" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -912,17 +958,18 @@
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
+      <c r="N4" s="7"/>
       <c r="O4" s="7">
         <v>0</v>
       </c>
       <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
         <v>842.65</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8">
@@ -949,8 +996,9 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" s="7"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -986,17 +1034,18 @@
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
+      <c r="N6" s="7"/>
       <c r="O6" s="7">
         <v>0</v>
       </c>
       <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
         <v>852.47</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -1032,17 +1081,18 @@
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
+      <c r="N7" s="7"/>
       <c r="O7" s="7">
         <v>0</v>
       </c>
       <c r="P7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
         <v>895.55</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -1078,17 +1128,18 @@
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
+      <c r="N8" s="7"/>
       <c r="O8" s="7">
         <v>0</v>
       </c>
       <c r="P8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
         <v>888.05</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -1124,17 +1175,18 @@
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="7">
         <v>0</v>
       </c>
       <c r="P9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
         <v>882.79</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -1170,17 +1222,18 @@
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7">
         <v>0</v>
       </c>
       <c r="P10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
         <v>874.35</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -1216,17 +1269,18 @@
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7">
         <v>0</v>
       </c>
       <c r="P11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
         <v>868.64</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -1262,17 +1316,18 @@
       <c r="M12" s="7">
         <v>0</v>
       </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7">
         <v>0</v>
       </c>
       <c r="P12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
         <v>861.56</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -1308,17 +1363,18 @@
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7">
         <v>0</v>
       </c>
       <c r="P13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
         <v>853.8</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -1354,17 +1410,18 @@
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7">
         <v>0</v>
       </c>
       <c r="P14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
         <v>847.41</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -1400,13 +1457,14 @@
       <c r="M15" s="7">
         <v>0</v>
       </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7">
         <v>0</v>
       </c>
       <c r="P15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7">
         <v>830.82</v>
       </c>
     </row>
@@ -1420,7 +1478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
